--- a/DateBase/orders/Dang Nguyen_2025-6-2.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-6-2.xlsx
@@ -696,6 +696,9 @@
       <c r="C31" t="str">
         <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
       </c>
+      <c r="F31" t="str">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -757,7 +760,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>010121210512121210816121010555106555108105101580</v>
+        <v>0101212105121212108161210105551065551081051015810</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-6-2.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-6-2.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -700,9 +700,92 @@
         <v>10</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>2</v>
+      </c>
+      <c r="C32" t="str">
+        <v>100_绣球单瓣白_Hydrangea White S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F32" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="str">
+        <v>110_绣球单瓣浅蓝_Hydrangea Light Blue S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F33" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>113_绣球安娜绿_Hydrangea Anna Green_Hydrangea L._1stem</v>
+      </c>
+      <c r="F34" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>101_绣球秋红_Hydrangea Vintage Red_Hydrangea L._1stem</v>
+      </c>
+      <c r="F35" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>103_绣球秋蓝_Hydrangea Vintage Blue_Hydrangea L._1stem</v>
+      </c>
+      <c r="F36" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>1</v>
+      </c>
+      <c r="C37" t="str">
+        <v>256_奇迹女神_Miracle Goddess_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F37" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="str">
+        <v>143_黑巴克_Black Baccara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F38" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="str">
+        <v>149_骄傲_Proud_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F39" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="str">
+        <v>189_洛神_Mandala_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F40" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="str">
+        <v>152_白荔枝_White Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -760,7 +843,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0101212105121212108161210105551065551081051015810</v>
+        <v>010121210512121210816121010555106555108105101581020202030208101580</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-6-2.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-6-2.xlsx
@@ -782,6 +782,9 @@
       <c r="C41" t="str">
         <v>152_白荔枝_White Ohara_Rosa rugosa Thunb._20stems</v>
       </c>
+      <c r="F41" t="str">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -843,7 +846,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>010121210512121210816121010555106555108105101581020202030208101580</v>
+        <v>010121210512121210816121010555106555108105101581020202030208101587</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-6-2.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-6-2.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -786,9 +786,71 @@
         <v>7</v>
       </c>
     </row>
+    <row r="42">
+      <c r="C42" t="str">
+        <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F42" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>2</v>
+      </c>
+      <c r="C43" t="str">
+        <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F43" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="str">
+        <v>160_卡布奇诺_Cappuccino_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F44" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="str">
+        <v>103_绣球秋蓝_Hydrangea Vintage Blue_Hydrangea L._1stem</v>
+      </c>
+      <c r="F45" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="str">
+        <v>100_绣球单瓣白_Hydrangea White S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F46" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>3</v>
+      </c>
+      <c r="C47" t="str">
+        <v>105_绣球莫奈蓝_Hydrangea Monet Blue_Hydrangea L._1stem</v>
+      </c>
+      <c r="F47" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="str">
+        <v>103_绣球秋蓝_Hydrangea Vintage Blue_Hydrangea L._1stem</v>
+      </c>
+      <c r="F48" t="str">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L48"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -846,7 +908,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>010121210512121210816121010555106555108105101581020202030208101587</v>
+        <v>01012121051212121081612101055510655510810510158102020203020810158737515151520</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-6-2.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-6-2.xlsx
@@ -910,6 +910,9 @@
       <c r="G2" t="str">
         <v>01012121051212121081612101055510655510810510158102020203020810158737515151520</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
